--- a/data/trans_orig/P34B03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34B03-Habitat-trans_orig.xlsx
@@ -642,7 +642,7 @@
         <v>0.7620311030584185</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6168072173647299</v>
+        <v>0.61680721736473</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.2479245614538198</v>
@@ -651,7 +651,7 @@
         <v>0.3649681848726891</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.3083545957158836</v>
+        <v>0.3083545957158837</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.4535042156498871</v>
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5516419891121238</v>
+        <v>0.53696134907919</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6447378657801979</v>
+        <v>0.6490319282937933</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5013887738104859</v>
+        <v>0.4923252700758105</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1795034726069202</v>
+        <v>0.1863766458745159</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2839455278637241</v>
+        <v>0.2840690196570851</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2409935036006581</v>
+        <v>0.23931972235576</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3805617446878741</v>
+        <v>0.3805855512776316</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4904081478225572</v>
+        <v>0.49125397442523</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3884768923588777</v>
+        <v>0.3818617099282417</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7932953039322433</v>
+        <v>0.790762232799407</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9043963416068317</v>
+        <v>0.9028840776080824</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7575203461707465</v>
+        <v>0.7645104822367197</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3282383994365012</v>
+        <v>0.3346324343587623</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4672090888366154</v>
+        <v>0.463117451270924</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3854220865744372</v>
+        <v>0.3942336417982725</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5214302168168548</v>
+        <v>0.5276930559244399</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6426341764491887</v>
+        <v>0.6424493062322614</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5408897051228374</v>
+        <v>0.5393053007735619</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.6758097083254528</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.6827874984921659</v>
+        <v>0.6827874984921657</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5847098023910479</v>
+        <v>0.5853964809848518</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7701050596180159</v>
+        <v>0.7693316543900581</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8211618401388415</v>
+        <v>0.8292306682475222</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2368402919498601</v>
+        <v>0.2444423643615534</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4088015238689247</v>
+        <v>0.4079312937222931</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3404599185121865</v>
+        <v>0.3360106739937028</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4296956141125071</v>
+        <v>0.4301394482899585</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6053557935985008</v>
+        <v>0.6079141844356155</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6121289469707257</v>
+        <v>0.6110621333488426</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.81176042244992</v>
+        <v>0.7912885285450948</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9999766387392665</v>
+        <v>0.9957817432128949</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.083615966807512</v>
+        <v>1.102823686997867</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3713069781389045</v>
+        <v>0.3752439531684382</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5794823997938958</v>
+        <v>0.5731665818196938</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4965515502578162</v>
+        <v>0.4981419242718712</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5567829339380734</v>
+        <v>0.5592219835243126</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.746479022283719</v>
+        <v>0.7519798219305027</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7649426273493006</v>
+        <v>0.7670924760551774</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.4444135266448242</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.4193317662972271</v>
+        <v>0.4193317662972272</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.5991642125631192</v>
@@ -878,7 +878,7 @@
         <v>0.6420233746026873</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.5956405740364055</v>
+        <v>0.5956405740364054</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7471907791164729</v>
+        <v>0.7539200412814036</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7263634123223438</v>
+        <v>0.7192806012747873</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.648667024364439</v>
+        <v>0.6546310727248581</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.252647075741176</v>
+        <v>0.2567549751379821</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3569557856019003</v>
+        <v>0.3665175937895871</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3403804212038828</v>
+        <v>0.3360201911839151</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5257500301895032</v>
+        <v>0.52333259661992</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5637450896034178</v>
+        <v>0.5696773777215934</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5159158395994246</v>
+        <v>0.5182675395991883</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.018777392067281</v>
+        <v>1.035825679416587</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9808473850450019</v>
+        <v>0.9766919920300736</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9343607566900923</v>
+        <v>0.9375797609535748</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.421945736258775</v>
+        <v>0.4235327341347361</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5336796008762323</v>
+        <v>0.5371353922209926</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5169570690049859</v>
+        <v>0.5175864423264728</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6861227777278047</v>
+        <v>0.6790992683020993</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7230302697849966</v>
+        <v>0.731920000070759</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6742936262571495</v>
+        <v>0.6908262523395207</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>0.9563235677130738</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9636698977016291</v>
+        <v>0.9636698977016293</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.3620076486765945</v>
@@ -978,7 +978,7 @@
         <v>0.5572017935389767</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.4966539466039781</v>
+        <v>0.4966539466039782</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.5737193129572624</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6927021901932157</v>
+        <v>0.6949348676461957</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8454450481979779</v>
+        <v>0.840460164564278</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8383308911601961</v>
+        <v>0.8356058709344043</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2909116481497255</v>
+        <v>0.2864264459445724</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4745797693857585</v>
+        <v>0.4772940458283565</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4338715790065885</v>
+        <v>0.4276329221331508</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5113492288761051</v>
+        <v>0.5123654575181383</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6795648579548207</v>
+        <v>0.6745856980046538</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6476010587071459</v>
+        <v>0.6487797544894277</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9408604719588705</v>
+        <v>0.9324026623527691</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.089329463682565</v>
+        <v>1.08282695625098</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.092196559914185</v>
+        <v>1.108475448272312</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4429844505415928</v>
+        <v>0.4429160177679275</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6571979465663017</v>
+        <v>0.6562753879714959</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5710077653548722</v>
+        <v>0.5763065512400135</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.645003583450678</v>
+        <v>0.6424696036471549</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8283039814352953</v>
+        <v>0.8284069054509541</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8000301905830547</v>
+        <v>0.7868791399470816</v>
       </c>
     </row>
     <row r="16">
@@ -1078,7 +1078,7 @@
         <v>0.8679093332587087</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8512399994228085</v>
+        <v>0.8512399994228084</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.3150886808138229</v>
@@ -1087,7 +1087,7 @@
         <v>0.4738082706421076</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.4188490539799597</v>
+        <v>0.4188490539799598</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.5313042352007041</v>
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6963301724009658</v>
+        <v>0.7012259944174507</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8039538441579487</v>
+        <v>0.8098955150585589</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7869935706724804</v>
+        <v>0.789956396529273</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2798002905046675</v>
+        <v>0.2802985003481666</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4283249021816556</v>
+        <v>0.4297171832338383</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.382362070388309</v>
+        <v>0.381640539724425</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4960508474084514</v>
+        <v>0.4961632837196648</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6318162865633853</v>
+        <v>0.6325026131087881</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5880909607579694</v>
+        <v>0.5921768597328166</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8122939984684105</v>
+        <v>0.8195510075503359</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9301232626607784</v>
+        <v>0.931064898845311</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9240702028758306</v>
+        <v>0.9270381479247086</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3538551959038657</v>
+        <v>0.3489755510147259</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5164253028536842</v>
+        <v>0.5159603748509736</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4595516133241579</v>
+        <v>0.4598818092028901</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5670285863433576</v>
+        <v>0.5678393860789039</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7107739991901734</v>
+        <v>0.7030934561167846</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6679262425084045</v>
+        <v>0.6690645550107632</v>
       </c>
     </row>
     <row r="19">
